--- a/mitll_DSFQ_XOR/Full_Adder_TruthTable.xlsx
+++ b/mitll_DSFQ_XOR/Full_Adder_TruthTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JoSim\DSFQLib\mitll_DSFQ_XOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E517EF4-61E8-4B80-9A18-91DA5A3C2B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1370AD3-AD8A-4F3A-A17E-4439DFA4065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1380" windowWidth="28800" windowHeight="11835" xr2:uid="{21827C45-5153-4B5A-9D41-063FE6EFA9F3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{21827C45-5153-4B5A-9D41-063FE6EFA9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>A0</t>
   </si>
@@ -116,6 +116,36 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>ADD0</t>
+  </si>
+  <si>
+    <t>ADD1</t>
+  </si>
+  <si>
+    <t>ADD2</t>
+  </si>
+  <si>
+    <t>ADD3</t>
+  </si>
+  <si>
+    <t>(format A B)</t>
+  </si>
+  <si>
+    <t>200p</t>
+  </si>
+  <si>
+    <t>100p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 0</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -510,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AEF6FB-A2F2-4A8B-8EF9-C091B7A918BC}">
-  <dimension ref="A1:AE39"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2068,7 +2098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2096,10 +2126,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2107,27 +2149,53 @@
       <c r="J35" s="8"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2137,7 +2205,8 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2147,6 +2216,16 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
